--- a/Spreadsheet Applications/Creating a Worksheet and Charting Data/Quarterly Sales.xlsx
+++ b/Spreadsheet Applications/Creating a Worksheet and Charting Data/Quarterly Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Creating a Worksheet and Charting Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{1787DD43-10FB-4B85-9992-A2261769957A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CE0D6F0-76A7-4D48-A8B1-557890F92E84}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{1787DD43-10FB-4B85-9992-A2261769957A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66B48BAF-9DB2-4F87-8E93-9D21B73C3D02}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D903661-4B50-4ED3-9C3D-54AC5816CA25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D903661-4B50-4ED3-9C3D-54AC5816CA25}"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly Sales" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -168,18 +168,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -1703,7 +1703,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1715,131 +1715,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>68991.12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>86894.82</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>99650.58</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <f>SUM(B4:D4)</f>
         <v>255536.52000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>28836</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>22634.23</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>22828.78</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <f t="shared" ref="E5:E7" si="0">SUM(B5:D5)</f>
         <v>74299.009999999995</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>59519.78</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>82337.98</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>99823.87</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>241681.63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>81267.17</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>87867.5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>91669.98</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>260804.64999999997</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <f>SUM(B4:B7)</f>
         <v>238614.07</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <f t="shared" ref="C8:D8" si="1">SUM(C4:C7)</f>
         <v>279734.53000000003</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>313973.20999999996</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <f>SUM(B8:D8)</f>
         <v>832321.81</v>
       </c>
@@ -1852,7 +1852,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
